--- a/Documents/Configuration Items List v4.2.xlsx
+++ b/Documents/Configuration Items List v4.2.xlsx
@@ -112,9 +112,6 @@
     <t>1.0-2.0</t>
   </si>
   <si>
-    <t>Definition of Scope and Team Compositions</t>
-  </si>
-  <si>
     <t>Use Case UML</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>CI LIST v.4.2</t>
+  </si>
+  <si>
+    <t>Project Proposal and Team Compositions</t>
   </si>
 </sst>
 </file>
@@ -669,7 +669,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +685,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -715,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -775,7 +775,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>31</v>
@@ -818,7 +818,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5">
         <v>42175</v>
@@ -1047,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1116,20 +1116,20 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" display="https://github.com/wshahzad/Team-Four/blob/master/Documents/Project Proposal and Team Composition.docx"/>
-    <hyperlink ref="F4" r:id="rId2"/>
-    <hyperlink ref="F5" r:id="rId3"/>
-    <hyperlink ref="F6" r:id="rId4"/>
-    <hyperlink ref="F7" r:id="rId5"/>
-    <hyperlink ref="F8" r:id="rId6"/>
-    <hyperlink ref="F9" r:id="rId7"/>
-    <hyperlink ref="F10" r:id="rId8"/>
-    <hyperlink ref="F12" r:id="rId9"/>
-    <hyperlink ref="F13" r:id="rId10"/>
-    <hyperlink ref="F18" r:id="rId11"/>
-    <hyperlink ref="F19" r:id="rId12"/>
-    <hyperlink ref="F21" r:id="rId13"/>
-    <hyperlink ref="F22" r:id="rId14"/>
-    <hyperlink ref="F11" r:id="rId15"/>
+    <hyperlink ref="F5" r:id="rId2"/>
+    <hyperlink ref="F6" r:id="rId3"/>
+    <hyperlink ref="F7" r:id="rId4"/>
+    <hyperlink ref="F8" r:id="rId5"/>
+    <hyperlink ref="F9" r:id="rId6"/>
+    <hyperlink ref="F10" r:id="rId7"/>
+    <hyperlink ref="F12" r:id="rId8"/>
+    <hyperlink ref="F13" r:id="rId9"/>
+    <hyperlink ref="F18" r:id="rId10"/>
+    <hyperlink ref="F19" r:id="rId11"/>
+    <hyperlink ref="F21" r:id="rId12"/>
+    <hyperlink ref="F22" r:id="rId13"/>
+    <hyperlink ref="F11" r:id="rId14"/>
+    <hyperlink ref="F4" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId16"/>
